--- a/img-processing/lab02/lab02.xlsx
+++ b/img-processing/lab02/lab02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigorijtomczuk\Desktop\suai\img-processing\lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915C2248-A6C9-4BB3-8831-D2C4C0DD1A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43A2C7-5C94-4A31-B095-2A644B82E5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19896" yWindow="4932" windowWidth="24504" windowHeight="18744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>Шаг дискретизации</t>
   </si>
@@ -47,13 +48,19 @@
   <si>
     <t>СКО для синего</t>
   </si>
+  <si>
+    <t>Уровень квантования</t>
+  </si>
+  <si>
+    <t>СКО</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -143,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -161,8 +168,20 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,6 +586,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Шаг дискретизации </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -589,12 +671,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -646,6 +725,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>СКО</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -662,12 +790,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -689,37 +814,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -751,7 +845,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1078,6 +1176,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Шаг дискретизации </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1100,12 +1261,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1157,7 +1315,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>СКО</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1173,12 +1380,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1200,37 +1404,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1262,7 +1435,1057 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.2223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A833-4E57-A97E-7FF7697DFE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2124876991"/>
+        <c:axId val="2124862431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2124876991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Уровень квантования </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124862431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2124862431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>СКО</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124876991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО для красного</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$31:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.24709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F61-4EB2-AB87-F4459388BA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО для зеленого</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$31:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.72E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6F61-4EB2-AB87-F4459388BA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО для синего</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$31:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6F61-4EB2-AB87-F4459388BA35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2124876991"/>
+        <c:axId val="2124862431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2124876991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Уровень квантования </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124862431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2124862431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>СКО</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124876991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1355,6 +2578,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2361,19 +3664,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>640080</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2401,15 +4710,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2430,6 +4739,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C89E9D-0A77-4CBF-9E15-2B4CD24A6933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758068F6-7CCE-49CA-84AF-49454BC0E04C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2701,10 +5086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2963,8 +5348,187 @@
         <v>0.21310000000000001</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.2223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11">
+        <v>6.1800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>16</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>32</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>64</v>
+      </c>
+      <c r="B27" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>128</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.21609999999999999</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.1201</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.12570000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>8</v>
+      </c>
+      <c r="B33" s="11">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="C33" s="11">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="D33" s="11">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>16</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>64</v>
+      </c>
+      <c r="B36" s="11">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D36" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
+        <v>128</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2.8E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>